--- a/AllocationBalancer.xlsx
+++ b/AllocationBalancer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KrisF\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KrisF\OneDrive\Projects\Git\AllocationBalancer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61C43FD7-E153-4AC3-A84E-6A7C4521B880}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{61C43FD7-E153-4AC3-A84E-6A7C4521B880}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{086311CD-D386-4EF3-B6AB-BFA9EC20CA1E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Discrepancy %</t>
   </si>
   <si>
-    <t>Balancing Action</t>
-  </si>
-  <si>
     <t>Long Term US Bonds</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Symbol</t>
+  </si>
+  <si>
+    <t>Balancing Recommendation</t>
   </si>
 </sst>
 </file>
@@ -84,7 +84,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -131,7 +131,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -155,7 +155,7 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -169,19 +169,19 @@
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -223,20 +223,20 @@
     <tableColumn id="2" xr3:uid="{B75489D9-B385-4DF4-915C-FEB3C6FC93C6}" name="Symbol" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{FDC6F89F-2235-407F-A153-ACE724D90C83}" name="Asset Price" dataDxfId="9" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{9E6DA8FD-DDA1-4853-A0F4-02ED697D69C8}" name="Current Values" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{CE4B46D3-2F17-4E33-A249-319BF2040752}" name="Ideal Values" dataDxfId="5" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{CE4B46D3-2F17-4E33-A249-319BF2040752}" name="Ideal Values" dataDxfId="7" dataCellStyle="Currency">
       <calculatedColumnFormula>InvestingTable[[#Totals],[Current Values]]*InvestingTable[[#This Row],[Ideal Allocation %]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C26A8CF4-63CA-4F85-B828-25F696E2BA86}" name="Current Allocation %" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{C26A8CF4-63CA-4F85-B828-25F696E2BA86}" name="Current Allocation %" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(InvestingTable[[#Totals],[Current Values]]&gt;0,InvestingTable[[#This Row],[Current Values]]/InvestingTable[[#Totals],[Current Values]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C8883089-2A7B-47BE-8013-E76C0C98E686}" name="Ideal Allocation %" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{5280097B-895D-412A-86C0-8A30A5F58C72}" name="Discrepancy Value" dataDxfId="6" dataCellStyle="Currency">
+    <tableColumn id="7" xr3:uid="{C8883089-2A7B-47BE-8013-E76C0C98E686}" name="Ideal Allocation %" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{5280097B-895D-412A-86C0-8A30A5F58C72}" name="Discrepancy Value" dataDxfId="4" dataCellStyle="Currency">
       <calculatedColumnFormula>IF(InvestingTable[[#This Row],[Current Values]]&lt;&gt;"",InvestingTable[[#This Row],[Current Values]]-InvestingTable[[#This Row],[Ideal Values]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{79A029D2-750E-46F6-857B-BC0B4A231785}" name="Discrepancy %" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{79A029D2-750E-46F6-857B-BC0B4A231785}" name="Discrepancy %" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(InvestingTable[[#This Row],[Current Allocation %]]&lt;&gt;"",InvestingTable[[#This Row],[Current Allocation %]]-InvestingTable[[#This Row],[Ideal Allocation %]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{61AB5E56-B698-4889-8E29-AF9CC6377558}" name="Balancing Action" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{61AB5E56-B698-4889-8E29-AF9CC6377558}" name="Balancing Recommendation" dataDxfId="2">
       <calculatedColumnFormula>IF((AND(InvestingTable[Discrepancy Value]&lt;&gt;"",InvestingTable[[#This Row],[Ideal Allocation %]]&gt;0)),(IF(InvestingTable[[#This Row],[Discrepancy Value]]/InvestingTable[[#This Row],[Asset Price]]&lt;0, "Buy " &amp; ROUND(ABS(InvestingTable[[#This Row],[Discrepancy Value]]/InvestingTable[[#This Row],[Asset Price]]),1) &amp; " shares", "Sell " &amp; ROUND(ABS(InvestingTable[[#This Row],[Discrepancy Value]]/InvestingTable[[#This Row],[Asset Price]]),1) &amp; " shares")),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -510,7 +510,7 @@
   <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -525,7 +525,7 @@
     <col min="8" max="8" width="17.53125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="5" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -558,12 +558,12 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7"/>
@@ -594,7 +594,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="7"/>
@@ -625,7 +625,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="8"/>
@@ -656,7 +656,7 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="8"/>
@@ -687,7 +687,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="8"/>
@@ -718,7 +718,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="8"/>
@@ -749,7 +749,7 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3">
         <f>SUBTOTAL(109,InvestingTable[Current Values])</f>
